--- a/SSIS - MES Solutions v2/LaserMarker.xlsx
+++ b/SSIS - MES Solutions v2/LaserMarker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\LaserMarker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\MES Solutions v2\SSIS - MES Solutions v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14BB80C-CF45-4E4F-B1F9-727D4272D89A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AAB5F5-CFA4-43AB-A92E-5F49E2C32EE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{948517EB-D2DB-425F-95AB-4D154185BE8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{948517EB-D2DB-425F-95AB-4D154185BE8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Indexing" sheetId="1" r:id="rId1"/>
@@ -204,15 +204,9 @@
     <t>napalovací program pre prednú stranu štítku</t>
   </si>
   <si>
-    <t>Old index</t>
-  </si>
-  <si>
     <t>product line</t>
   </si>
   <si>
-    <t>New Index</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -253,6 +247,12 @@
   </si>
   <si>
     <t>použitých:</t>
+  </si>
+  <si>
+    <t>Old index (v1)</t>
+  </si>
+  <si>
+    <t>New Index (v2)</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,10 +740,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -1138,7 +1138,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="10">
         <v>4</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6">
@@ -1181,10 +1181,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1192,7 +1192,7 @@
         <v>141538</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1200,7 +1200,7 @@
         <v>141539</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1208,7 +1208,7 @@
         <v>141982</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1216,7 +1216,7 @@
         <v>141983</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>141984</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1232,7 +1232,7 @@
         <v>141985</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1240,7 +1240,7 @@
         <v>140989</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1248,7 +1248,7 @@
         <v>11193248</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1256,7 +1256,7 @@
         <v>11193249</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1264,7 +1264,7 @@
         <v>11167974</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1272,7 +1272,7 @@
         <v>11235986</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
